--- a/仕様/仕様まとめ.xlsx
+++ b/仕様/仕様まとめ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karyo\Desktop\Lancers\CreateMasterMacro\仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7D4090-A03F-42AE-97FF-D875EF145AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC43ED00-3BC5-46BD-BB03-2AFBC6BD4527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D09938D5-C7D8-48E9-A66C-388E0F77CF04}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="99">
   <si>
     <t>商品コード</t>
     <rPh sb="0" eb="2">
@@ -386,20 +386,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>元データの[税込売価] - (元データの[税込売価]×割引率×セット個数)</t>
-    <rPh sb="27" eb="30">
-      <t>ワリビキリツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>元データの[税込売価] - (割引額×セット個数)</t>
-    <rPh sb="17" eb="18">
-      <t>ガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>出力先の商品名</t>
     <rPh sb="0" eb="3">
       <t>シュツリョクサキ</t>
@@ -557,6 +543,24 @@
     <t>コピー元のフォルダ</t>
     <rPh sb="3" eb="4">
       <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>元データの[税込仕入単価]×セット個数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(元データの[税込売価]×セット個数) - (元データの[税込売価]×割引率×セット個数)</t>
+    <rPh sb="35" eb="38">
+      <t>ワリビキリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(元データの[税込売価]×セット個数) - (割引額×セット個数)</t>
+    <rPh sb="25" eb="26">
+      <t>ガク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -971,6 +975,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -998,113 +1101,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2868,7 +2872,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:AF47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46:AE46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2878,7 +2884,7 @@
   <sheetData>
     <row r="2" spans="2:32" ht="19.8" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2890,7 +2896,7 @@
     <row r="5" spans="2:32" x14ac:dyDescent="0.45">
       <c r="C5" s="4"/>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.45">
@@ -2904,7 +2910,7 @@
     <row r="8" spans="2:32" x14ac:dyDescent="0.45">
       <c r="C8" s="4"/>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.45">
@@ -2912,1664 +2918,1622 @@
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.45">
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C11" s="2"/>
-      <c r="D11" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13" t="s">
+      <c r="D11" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="48"/>
+      <c r="F11" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="7" t="s">
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
       <c r="AF11" s="6"/>
     </row>
     <row r="12" spans="2:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D12" s="16"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="16" t="s">
+      <c r="D12" s="28"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
       <c r="AF12" s="6"/>
     </row>
     <row r="13" spans="2:32" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22" t="s">
+      <c r="E13" s="24"/>
+      <c r="F13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22" t="s">
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22" t="s">
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.45">
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21" t="s">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21" t="s">
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="21"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.45">
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="21" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="M15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21" t="s">
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="32"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="19"/>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.45">
       <c r="C16">
         <v>4</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="21" t="s">
+      <c r="L16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="M16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21" t="s">
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="35"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="22"/>
     </row>
     <row r="17" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C17">
         <v>5</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="21" t="s">
+      <c r="E17" s="24"/>
+      <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="L17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="M17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21" t="s">
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21" t="s">
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="21"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
     </row>
     <row r="18" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C18">
         <v>6</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="21" t="s">
+      <c r="J18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="21" t="s">
+      <c r="K18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="21" t="s">
+      <c r="L18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="21" t="s">
+      <c r="M18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21" t="s">
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21" t="s">
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="21"/>
-      <c r="AE18" s="21"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
     </row>
     <row r="19" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C19">
         <v>7</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="21" t="s">
+      <c r="E19" s="24"/>
+      <c r="F19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="21" t="s">
+      <c r="M19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21" t="s">
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
-      <c r="AC19" s="21"/>
-      <c r="AD19" s="21"/>
-      <c r="AE19" s="21"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
     </row>
     <row r="20" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C20">
         <v>8</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="21" t="s">
+      <c r="K20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="L20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="21" t="s">
+      <c r="M20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21" t="s">
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21" t="s">
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="21"/>
-      <c r="AE20" s="21"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
     </row>
     <row r="21" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C21">
         <v>9</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="21" t="s">
+      <c r="E21" s="24"/>
+      <c r="F21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K21" s="21" t="s">
+      <c r="K21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="L21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M21" s="21" t="s">
+      <c r="M21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21" t="s">
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21" t="s">
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="21"/>
-      <c r="AC21" s="21"/>
-      <c r="AD21" s="21"/>
-      <c r="AE21" s="21"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
     </row>
     <row r="22" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C22">
         <v>10</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="21" t="s">
+      <c r="K22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L22" s="21" t="s">
+      <c r="L22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M22" s="21" t="s">
+      <c r="M22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21" t="s">
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21" t="s">
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="21"/>
-      <c r="AE22" s="21"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
     </row>
     <row r="23" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C23">
         <v>11</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="21" t="s">
+      <c r="E23" s="24"/>
+      <c r="F23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="21" t="s">
+      <c r="J23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="21" t="s">
+      <c r="K23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L23" s="21" t="s">
+      <c r="L23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M23" s="21" t="s">
+      <c r="M23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21" t="s">
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21" t="s">
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
-      <c r="AE23" s="21"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
     </row>
     <row r="24" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C24">
         <v>12</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21" t="s">
+      <c r="E24" s="7"/>
+      <c r="F24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="21" t="s">
+      <c r="J24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K24" s="21" t="s">
+      <c r="K24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="21" t="s">
+      <c r="L24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M24" s="21" t="s">
+      <c r="M24" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21" t="s">
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="21"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
     </row>
     <row r="25" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C25">
         <v>13</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21" t="s">
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="21" t="s">
+      <c r="J25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="K25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="L25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M25" s="21" t="s">
+      <c r="M25" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21" t="s">
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21" t="s">
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="21"/>
-      <c r="AD25" s="21"/>
-      <c r="AE25" s="21"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C26">
         <v>14</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21" t="s">
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="21" t="s">
+      <c r="J26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K26" s="21" t="s">
+      <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="21" t="s">
+      <c r="L26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M26" s="21" t="s">
+      <c r="M26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21" t="s">
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21" t="s">
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="21"/>
-      <c r="AD26" s="21"/>
-      <c r="AE26" s="21"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
     </row>
     <row r="27" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C27">
         <v>15</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21" t="s">
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="21" t="s">
+      <c r="J27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K27" s="21" t="s">
+      <c r="K27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L27" s="21" t="s">
+      <c r="L27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21" t="s">
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21" t="s">
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="21"/>
-      <c r="AD27" s="21"/>
-      <c r="AE27" s="21"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
     </row>
     <row r="28" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C28">
         <v>16</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21" t="s">
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="21" t="s">
+      <c r="J28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K28" s="21" t="s">
+      <c r="K28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L28" s="21" t="s">
+      <c r="L28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M28" s="21" t="s">
+      <c r="M28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21" t="s">
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="21"/>
-      <c r="AE28" s="21"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
     </row>
     <row r="29" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C29">
         <v>17</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21" t="s">
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="I29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="21" t="s">
+      <c r="J29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K29" s="21" t="s">
+      <c r="K29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L29" s="21" t="s">
+      <c r="L29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M29" s="21" t="s">
+      <c r="M29" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21" t="s">
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21" t="s">
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21"/>
-      <c r="AC29" s="21"/>
-      <c r="AD29" s="21"/>
-      <c r="AE29" s="21"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
     </row>
     <row r="32" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C32" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="3:31" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D33" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="39" t="s">
+      <c r="D33" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="51"/>
+      <c r="F33" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="39" t="s">
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="40"/>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="40"/>
-      <c r="AA33" s="40"/>
-      <c r="AB33" s="40"/>
-      <c r="AC33" s="40"/>
-      <c r="AD33" s="40"/>
-      <c r="AE33" s="41"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="36"/>
     </row>
     <row r="34" spans="3:31" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="42" t="s">
+      <c r="E34" s="24"/>
+      <c r="F34" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="45" t="s">
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="46"/>
-      <c r="V34" s="46"/>
-      <c r="W34" s="46"/>
-      <c r="X34" s="46"/>
-      <c r="Y34" s="46"/>
-      <c r="Z34" s="46"/>
-      <c r="AA34" s="46"/>
-      <c r="AB34" s="46"/>
-      <c r="AC34" s="46"/>
-      <c r="AD34" s="46"/>
-      <c r="AE34" s="47"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
+      <c r="AE34" s="27"/>
     </row>
     <row r="35" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="24" t="s">
+      <c r="E35" s="7"/>
+      <c r="F35" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="27" t="s">
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="28"/>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="28"/>
-      <c r="AE35" s="29"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="16"/>
     </row>
     <row r="36" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C36">
         <v>3</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="24" t="s">
+      <c r="E36" s="24"/>
+      <c r="F36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="27" t="s">
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="28"/>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="28"/>
-      <c r="AE36" s="29"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="16"/>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C37">
         <v>4</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="24" t="s">
+      <c r="E37" s="7"/>
+      <c r="F37" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="27" t="s">
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="28"/>
-      <c r="AA37" s="28"/>
-      <c r="AB37" s="28"/>
-      <c r="AC37" s="28"/>
-      <c r="AD37" s="28"/>
-      <c r="AE37" s="29"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="15"/>
+      <c r="AD37" s="15"/>
+      <c r="AE37" s="16"/>
     </row>
     <row r="38" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C38">
         <v>5</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="24" t="s">
+      <c r="E38" s="24"/>
+      <c r="F38" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="27" t="s">
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="28"/>
-      <c r="AA38" s="28"/>
-      <c r="AB38" s="28"/>
-      <c r="AC38" s="28"/>
-      <c r="AD38" s="28"/>
-      <c r="AE38" s="29"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="15"/>
+      <c r="AD38" s="15"/>
+      <c r="AE38" s="16"/>
     </row>
     <row r="39" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C39">
         <v>6</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="24" t="s">
+      <c r="E39" s="7"/>
+      <c r="F39" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="27" t="s">
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="28"/>
-      <c r="U39" s="28"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="28"/>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="28"/>
-      <c r="AA39" s="28"/>
-      <c r="AB39" s="28"/>
-      <c r="AC39" s="28"/>
-      <c r="AD39" s="28"/>
-      <c r="AE39" s="29"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="16"/>
     </row>
     <row r="40" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C40">
         <v>7</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="24" t="s">
+      <c r="E40" s="24"/>
+      <c r="F40" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="27" t="s">
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="28"/>
-      <c r="AA40" s="28"/>
-      <c r="AB40" s="28"/>
-      <c r="AC40" s="28"/>
-      <c r="AD40" s="28"/>
-      <c r="AE40" s="29"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="16"/>
     </row>
     <row r="41" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C41">
         <v>8</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="24" t="s">
+      <c r="E41" s="7"/>
+      <c r="F41" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="27" t="s">
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="28"/>
-      <c r="AD41" s="28"/>
-      <c r="AE41" s="29"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="15"/>
+      <c r="AA41" s="15"/>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="15"/>
+      <c r="AD41" s="15"/>
+      <c r="AE41" s="16"/>
     </row>
     <row r="42" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C42">
         <v>9</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="22"/>
-      <c r="F42" s="24" t="s">
+      <c r="E42" s="24"/>
+      <c r="F42" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="27" t="s">
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="28"/>
-      <c r="AE42" s="29"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="15"/>
+      <c r="AD42" s="15"/>
+      <c r="AE42" s="16"/>
     </row>
     <row r="43" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C43">
         <v>10</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="21"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="7"/>
+      <c r="F43" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="28"/>
-      <c r="U43" s="28"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="28"/>
-      <c r="AA43" s="28"/>
-      <c r="AB43" s="28"/>
-      <c r="AC43" s="28"/>
-      <c r="AD43" s="28"/>
-      <c r="AE43" s="29"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="15"/>
+      <c r="AC43" s="15"/>
+      <c r="AD43" s="15"/>
+      <c r="AE43" s="16"/>
     </row>
     <row r="44" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C44">
         <v>11</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="27" t="s">
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="28"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="28"/>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="28"/>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="28"/>
-      <c r="AE44" s="29"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
+      <c r="AC44" s="15"/>
+      <c r="AD44" s="15"/>
+      <c r="AE44" s="16"/>
     </row>
     <row r="45" spans="3:31" x14ac:dyDescent="0.45">
-      <c r="C45" s="48">
+      <c r="C45" s="23">
         <v>12</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="30" t="s">
+      <c r="E45" s="19"/>
+      <c r="F45" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37"/>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="37"/>
-      <c r="AA45" s="37"/>
-      <c r="AB45" s="37"/>
-      <c r="AC45" s="37"/>
-      <c r="AD45" s="37"/>
-      <c r="AE45" s="38"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="32"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="32"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="32"/>
+      <c r="Z45" s="32"/>
+      <c r="AA45" s="32"/>
+      <c r="AB45" s="32"/>
+      <c r="AC45" s="32"/>
+      <c r="AD45" s="32"/>
+      <c r="AE45" s="33"/>
     </row>
     <row r="46" spans="3:31" x14ac:dyDescent="0.45">
-      <c r="C46" s="48"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="N46" s="50"/>
-      <c r="O46" s="50"/>
-      <c r="P46" s="50"/>
-      <c r="Q46" s="50"/>
-      <c r="R46" s="50"/>
-      <c r="S46" s="50"/>
-      <c r="T46" s="50"/>
-      <c r="U46" s="50"/>
-      <c r="V46" s="50"/>
-      <c r="W46" s="50"/>
-      <c r="X46" s="50"/>
-      <c r="Y46" s="50"/>
-      <c r="Z46" s="50"/>
-      <c r="AA46" s="50"/>
-      <c r="AB46" s="50"/>
-      <c r="AC46" s="50"/>
-      <c r="AD46" s="50"/>
-      <c r="AE46" s="51"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="9"/>
+      <c r="AD46" s="9"/>
+      <c r="AE46" s="10"/>
     </row>
     <row r="47" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C47">
         <v>13</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="24" t="s">
+      <c r="E47" s="7"/>
+      <c r="F47" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="27" t="s">
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="28"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="28"/>
-      <c r="AA47" s="28"/>
-      <c r="AB47" s="28"/>
-      <c r="AC47" s="28"/>
-      <c r="AD47" s="28"/>
-      <c r="AE47" s="29"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="15"/>
+      <c r="U47" s="15"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="15"/>
+      <c r="Z47" s="15"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="15"/>
+      <c r="AC47" s="15"/>
+      <c r="AD47" s="15"/>
+      <c r="AE47" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="134">
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M46:AE46"/>
-    <mergeCell ref="F42:L42"/>
-    <mergeCell ref="M43:AE43"/>
-    <mergeCell ref="F45:L46"/>
-    <mergeCell ref="D45:E46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="M42:AE42"/>
-    <mergeCell ref="F38:L38"/>
-    <mergeCell ref="F39:L39"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M39:AE39"/>
-    <mergeCell ref="M40:AE40"/>
-    <mergeCell ref="M41:AE41"/>
-    <mergeCell ref="M34:AE34"/>
-    <mergeCell ref="M35:AE35"/>
-    <mergeCell ref="M36:AE36"/>
-    <mergeCell ref="M37:AE37"/>
-    <mergeCell ref="M38:AE38"/>
-    <mergeCell ref="F41:L41"/>
-    <mergeCell ref="F40:L40"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:AE22"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:AE23"/>
-    <mergeCell ref="F22:L22"/>
-    <mergeCell ref="F23:L23"/>
-    <mergeCell ref="F24:L24"/>
-    <mergeCell ref="F25:L25"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="F21:L21"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="F27:L27"/>
-    <mergeCell ref="F28:L28"/>
-    <mergeCell ref="F29:L29"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="S18:AE18"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:AE19"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:AE20"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:AE21"/>
-    <mergeCell ref="S12:AE12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S15:AE16"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:AE13"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:AE14"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:AE17"/>
-    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="M11:O12"/>
+    <mergeCell ref="F11:L12"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="P11:AE11"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="F47:L47"/>
     <mergeCell ref="M47:AE47"/>
     <mergeCell ref="P27:R27"/>
@@ -4594,40 +4558,82 @@
     <mergeCell ref="F35:L35"/>
     <mergeCell ref="F36:L36"/>
     <mergeCell ref="F37:L37"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="M11:O12"/>
-    <mergeCell ref="F11:L12"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="P11:AE11"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="S12:AE12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S15:AE16"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:AE13"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:AE14"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="F28:L28"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="S18:AE18"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:AE19"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:AE20"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:AE21"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:AE17"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="F22:L22"/>
+    <mergeCell ref="F23:L23"/>
+    <mergeCell ref="F24:L24"/>
+    <mergeCell ref="F25:L25"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M39:AE39"/>
+    <mergeCell ref="M40:AE40"/>
+    <mergeCell ref="M34:AE34"/>
+    <mergeCell ref="M35:AE35"/>
+    <mergeCell ref="M36:AE36"/>
+    <mergeCell ref="M37:AE37"/>
+    <mergeCell ref="M38:AE38"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:AE22"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:AE23"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M46:AE46"/>
+    <mergeCell ref="F42:L42"/>
+    <mergeCell ref="M43:AE43"/>
+    <mergeCell ref="F45:L46"/>
+    <mergeCell ref="D45:E46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="M42:AE42"/>
+    <mergeCell ref="F38:L38"/>
+    <mergeCell ref="F39:L39"/>
+    <mergeCell ref="M41:AE41"/>
+    <mergeCell ref="F41:L41"/>
+    <mergeCell ref="F40:L40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4650,7 +4656,7 @@
   <sheetData>
     <row r="2" spans="2:52" ht="19.8" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D2"/>
       <c r="AC2"/>
@@ -4677,11 +4683,11 @@
     </row>
     <row r="7" spans="2:52" x14ac:dyDescent="0.45">
       <c r="E7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G7" s="5"/>
       <c r="AA7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:52" x14ac:dyDescent="0.45">
@@ -4689,13 +4695,13 @@
         <v>52</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s">
         <v>52</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:52" x14ac:dyDescent="0.45">
@@ -4703,13 +4709,13 @@
         <v>52</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AB9" t="s">
         <v>52</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="2:52" x14ac:dyDescent="0.45">
@@ -4717,13 +4723,13 @@
         <v>52</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB10" t="s">
         <v>52</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AP10" s="5"/>
     </row>
@@ -4732,10 +4738,10 @@
         <v>52</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AB11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="2:52" x14ac:dyDescent="0.45">
@@ -4743,7 +4749,7 @@
         <v>52</v>
       </c>
       <c r="AC12" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:52" x14ac:dyDescent="0.45">
@@ -4751,7 +4757,7 @@
         <v>52</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AZ13" s="5"/>
     </row>
@@ -4760,13 +4766,13 @@
         <v>52</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AZ14" s="5"/>
     </row>
     <row r="15" spans="2:52" x14ac:dyDescent="0.45">
       <c r="AB15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AZ15" s="5"/>
     </row>
@@ -4775,7 +4781,7 @@
         <v>52</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AZ16" s="5"/>
     </row>
@@ -4784,7 +4790,7 @@
         <v>52</v>
       </c>
       <c r="AC17" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AZ17" s="5"/>
     </row>
@@ -4793,7 +4799,7 @@
         <v>52</v>
       </c>
       <c r="AC18" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AZ18" s="5"/>
     </row>
@@ -4801,7 +4807,7 @@
       <c r="D19"/>
       <c r="F19" s="5"/>
       <c r="AB19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AZ19" s="5"/>
     </row>
@@ -4812,7 +4818,7 @@
         <v>52</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AZ20" s="5"/>
     </row>
@@ -4823,7 +4829,7 @@
         <v>52</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AZ21" s="5"/>
     </row>
@@ -4834,7 +4840,7 @@
         <v>52</v>
       </c>
       <c r="AC22" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AZ22" s="5"/>
     </row>

--- a/仕様/仕様まとめ.xlsx
+++ b/仕様/仕様まとめ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karyo\Desktop\Lancers\CreateMasterMacro\仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC43ED00-3BC5-46BD-BB03-2AFBC6BD4527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBD0F2B-55BD-4892-952C-B579671D4D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D09938D5-C7D8-48E9-A66C-388E0F77CF04}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="102">
   <si>
     <t>商品コード</t>
     <rPh sb="0" eb="2">
@@ -342,13 +342,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Q以降</t>
-    <rPh sb="1" eb="3">
-      <t>イコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>読み取り有無</t>
     <rPh sb="0" eb="1">
       <t>ヨ</t>
@@ -562,6 +555,34 @@
     <rPh sb="25" eb="26">
       <t>ガク</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>運賃無料セット数</t>
+    <rPh sb="0" eb="4">
+      <t>ウンチンムリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>運賃</t>
+    <rPh sb="0" eb="2">
+      <t>ウンチン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>R以降</t>
+    <rPh sb="1" eb="3">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Q</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -975,9 +996,129 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -987,127 +1128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2870,11 +2891,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBF5FC6-9666-4B9A-BE17-5901C1CCD1DA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:AF47"/>
+  <dimension ref="B2:AF48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46:AE46"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2884,7 +2903,7 @@
   <sheetData>
     <row r="2" spans="2:32" ht="19.8" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2896,7 +2915,7 @@
     <row r="5" spans="2:32" x14ac:dyDescent="0.45">
       <c r="C5" s="4"/>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.45">
@@ -2910,7 +2929,7 @@
     <row r="8" spans="2:32" x14ac:dyDescent="0.45">
       <c r="C8" s="4"/>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.45">
@@ -2918,1646 +2937,1715 @@
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.45">
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:32" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C11" s="2"/>
-      <c r="D11" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="46" t="s">
+      <c r="D11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="N11" s="41"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
       <c r="AF11" s="6"/>
     </row>
     <row r="12" spans="2:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D12" s="28"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="28" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
       <c r="AF12" s="6"/>
     </row>
     <row r="13" spans="2:32" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24" t="s">
+      <c r="E13" s="22"/>
+      <c r="F13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24" t="s">
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24" t="s">
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.45">
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7" t="s">
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7" t="s">
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.45">
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="22"/>
+      <c r="F15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7" t="s">
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="19"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="41"/>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.45">
       <c r="C16">
         <v>4</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="21"/>
+      <c r="F16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7" t="s">
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="22"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="43"/>
+      <c r="AC16" s="43"/>
+      <c r="AD16" s="43"/>
+      <c r="AE16" s="44"/>
     </row>
     <row r="17" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C17">
         <v>5</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="22"/>
+      <c r="F17" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="I17" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="J17" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
+      <c r="M17" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
     </row>
     <row r="18" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C18">
         <v>6</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7" t="s">
+      <c r="E18" s="21"/>
+      <c r="F18" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7" t="s">
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="21"/>
     </row>
     <row r="19" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C19">
         <v>7</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" s="7" t="s">
+      <c r="E19" s="22"/>
+      <c r="F19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
     </row>
     <row r="20" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C20">
         <v>8</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="7" t="s">
+      <c r="E20" s="21"/>
+      <c r="F20" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="21"/>
     </row>
     <row r="21" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C21">
         <v>9</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7" t="s">
+      <c r="E21" s="22"/>
+      <c r="F21" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7" t="s">
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7" t="s">
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
     </row>
     <row r="22" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C22">
         <v>10</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M22" s="7" t="s">
+      <c r="E22" s="21"/>
+      <c r="F22" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7" t="s">
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7" t="s">
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="21"/>
     </row>
     <row r="23" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C23">
         <v>11</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M23" s="7" t="s">
+      <c r="E23" s="22"/>
+      <c r="F23" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7" t="s">
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7" t="s">
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
     </row>
     <row r="24" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C24">
         <v>12</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24" s="7" t="s">
+      <c r="E24" s="21"/>
+      <c r="F24" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="21"/>
     </row>
     <row r="25" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C25">
         <v>13</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M25" s="7" t="s">
+      <c r="E25" s="22"/>
+      <c r="F25" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="21"/>
     </row>
     <row r="26" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C26">
         <v>14</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M26" s="7" t="s">
+      <c r="E26" s="21"/>
+      <c r="F26" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7" t="s">
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="21"/>
     </row>
     <row r="27" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C27">
         <v>15</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7" t="s">
+      <c r="E27" s="22"/>
+      <c r="F27" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7" t="s">
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="21"/>
     </row>
     <row r="28" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C28">
         <v>16</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M28" s="7" t="s">
+      <c r="E28" s="21"/>
+      <c r="F28" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="21"/>
     </row>
     <row r="29" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C29">
         <v>17</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7" t="s">
+      <c r="D29" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="21"/>
+      <c r="AD29" s="21"/>
+      <c r="AE29" s="21"/>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.45">
+      <c r="C30">
+        <v>18</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G30" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H30" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I30" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J30" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K30" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="L30" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M30" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7" t="s">
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7" t="s">
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="7"/>
-      <c r="AE29" s="7"/>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.45">
-      <c r="C32" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="3:31" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D33" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="34" t="s">
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="21"/>
+      <c r="AE30" s="21"/>
+    </row>
+    <row r="33" spans="3:31" x14ac:dyDescent="0.45">
+      <c r="C33" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="3:31" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D34" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="34" t="s">
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="35"/>
-      <c r="AA33" s="35"/>
-      <c r="AB33" s="35"/>
-      <c r="AC33" s="35"/>
-      <c r="AD33" s="35"/>
-      <c r="AE33" s="36"/>
-    </row>
-    <row r="34" spans="3:31" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="C34">
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="34"/>
+      <c r="AE34" s="35"/>
+    </row>
+    <row r="35" spans="3:31" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C35">
         <v>1</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D35" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="37" t="s">
+      <c r="E35" s="22"/>
+      <c r="F35" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="26"/>
-      <c r="Z34" s="26"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="26"/>
-      <c r="AE34" s="27"/>
-    </row>
-    <row r="35" spans="3:31" x14ac:dyDescent="0.45">
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="15"/>
-      <c r="X35" s="15"/>
-      <c r="Y35" s="15"/>
-      <c r="Z35" s="15"/>
-      <c r="AA35" s="15"/>
-      <c r="AB35" s="15"/>
-      <c r="AC35" s="15"/>
-      <c r="AD35" s="15"/>
-      <c r="AE35" s="16"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="46"/>
+      <c r="U35" s="46"/>
+      <c r="V35" s="46"/>
+      <c r="W35" s="46"/>
+      <c r="X35" s="46"/>
+      <c r="Y35" s="46"/>
+      <c r="Z35" s="46"/>
+      <c r="AA35" s="46"/>
+      <c r="AB35" s="46"/>
+      <c r="AC35" s="46"/>
+      <c r="AD35" s="46"/>
+      <c r="AE35" s="47"/>
     </row>
     <row r="36" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="15"/>
-      <c r="X36" s="15"/>
-      <c r="Y36" s="15"/>
-      <c r="Z36" s="15"/>
-      <c r="AA36" s="15"/>
-      <c r="AB36" s="15"/>
-      <c r="AC36" s="15"/>
-      <c r="AD36" s="15"/>
-      <c r="AE36" s="16"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="29"/>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="15"/>
-      <c r="V37" s="15"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="15"/>
-      <c r="Y37" s="15"/>
-      <c r="Z37" s="15"/>
-      <c r="AA37" s="15"/>
-      <c r="AB37" s="15"/>
-      <c r="AC37" s="15"/>
-      <c r="AD37" s="15"/>
-      <c r="AE37" s="16"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="28"/>
+      <c r="AD37" s="28"/>
+      <c r="AE37" s="29"/>
     </row>
     <row r="38" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C38">
-        <v>5</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="15"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="15"/>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="15"/>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="15"/>
-      <c r="AB38" s="15"/>
-      <c r="AC38" s="15"/>
-      <c r="AD38" s="15"/>
-      <c r="AE38" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="28"/>
+      <c r="AE38" s="29"/>
     </row>
     <row r="39" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C39">
-        <v>6</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="15"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="28"/>
+      <c r="AC39" s="28"/>
+      <c r="AD39" s="28"/>
+      <c r="AE39" s="29"/>
     </row>
     <row r="40" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C40">
-        <v>7</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="15"/>
-      <c r="AD40" s="15"/>
-      <c r="AE40" s="16"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="28"/>
+      <c r="AE40" s="29"/>
     </row>
     <row r="41" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C41">
-        <v>8</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="15"/>
-      <c r="X41" s="15"/>
-      <c r="Y41" s="15"/>
-      <c r="Z41" s="15"/>
-      <c r="AA41" s="15"/>
-      <c r="AB41" s="15"/>
-      <c r="AC41" s="15"/>
-      <c r="AD41" s="15"/>
-      <c r="AE41" s="16"/>
+        <v>7</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="28"/>
+      <c r="AE41" s="29"/>
     </row>
     <row r="42" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C42">
-        <v>9</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="15"/>
-      <c r="X42" s="15"/>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="15"/>
-      <c r="AA42" s="15"/>
-      <c r="AB42" s="15"/>
-      <c r="AC42" s="15"/>
-      <c r="AD42" s="15"/>
-      <c r="AE42" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="21"/>
+      <c r="F42" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
+      <c r="AD42" s="28"/>
+      <c r="AE42" s="29"/>
     </row>
     <row r="43" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C43">
-        <v>10</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="15"/>
-      <c r="X43" s="15"/>
-      <c r="Y43" s="15"/>
-      <c r="Z43" s="15"/>
-      <c r="AA43" s="15"/>
-      <c r="AB43" s="15"/>
-      <c r="AC43" s="15"/>
-      <c r="AD43" s="15"/>
-      <c r="AE43" s="16"/>
+        <v>9</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="28"/>
+      <c r="AE43" s="29"/>
     </row>
     <row r="44" spans="3:31" x14ac:dyDescent="0.45">
       <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="28"/>
+      <c r="AD44" s="28"/>
+      <c r="AE44" s="29"/>
+    </row>
+    <row r="45" spans="3:31" x14ac:dyDescent="0.45">
+      <c r="C45">
         <v>11</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D45" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="11" t="s">
+      <c r="E45" s="22"/>
+      <c r="F45" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="14" t="s">
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="15"/>
-      <c r="X44" s="15"/>
-      <c r="Y44" s="15"/>
-      <c r="Z44" s="15"/>
-      <c r="AA44" s="15"/>
-      <c r="AB44" s="15"/>
-      <c r="AC44" s="15"/>
-      <c r="AD44" s="15"/>
-      <c r="AE44" s="16"/>
-    </row>
-    <row r="45" spans="3:31" x14ac:dyDescent="0.45">
-      <c r="C45" s="23">
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="28"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="28"/>
+      <c r="AE45" s="29"/>
+    </row>
+    <row r="46" spans="3:31" x14ac:dyDescent="0.45">
+      <c r="C46" s="51">
         <v>12</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D46" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="17" t="s">
+      <c r="E46" s="41"/>
+      <c r="F46" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="31" t="s">
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="31"/>
+      <c r="T46" s="31"/>
+      <c r="U46" s="31"/>
+      <c r="V46" s="31"/>
+      <c r="W46" s="31"/>
+      <c r="X46" s="31"/>
+      <c r="Y46" s="31"/>
+      <c r="Z46" s="31"/>
+      <c r="AA46" s="31"/>
+      <c r="AB46" s="31"/>
+      <c r="AC46" s="31"/>
+      <c r="AD46" s="31"/>
+      <c r="AE46" s="32"/>
+    </row>
+    <row r="47" spans="3:31" x14ac:dyDescent="0.45">
+      <c r="C47" s="51"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="N45" s="32"/>
-      <c r="O45" s="32"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="32"/>
-      <c r="S45" s="32"/>
-      <c r="T45" s="32"/>
-      <c r="U45" s="32"/>
-      <c r="V45" s="32"/>
-      <c r="W45" s="32"/>
-      <c r="X45" s="32"/>
-      <c r="Y45" s="32"/>
-      <c r="Z45" s="32"/>
-      <c r="AA45" s="32"/>
-      <c r="AB45" s="32"/>
-      <c r="AC45" s="32"/>
-      <c r="AD45" s="32"/>
-      <c r="AE45" s="33"/>
-    </row>
-    <row r="46" spans="3:31" x14ac:dyDescent="0.45">
-      <c r="C46" s="23"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="9"/>
-      <c r="AC46" s="9"/>
-      <c r="AD46" s="9"/>
-      <c r="AE46" s="10"/>
-    </row>
-    <row r="47" spans="3:31" x14ac:dyDescent="0.45">
-      <c r="C47">
+      <c r="N47" s="49"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="49"/>
+      <c r="Q47" s="49"/>
+      <c r="R47" s="49"/>
+      <c r="S47" s="49"/>
+      <c r="T47" s="49"/>
+      <c r="U47" s="49"/>
+      <c r="V47" s="49"/>
+      <c r="W47" s="49"/>
+      <c r="X47" s="49"/>
+      <c r="Y47" s="49"/>
+      <c r="Z47" s="49"/>
+      <c r="AA47" s="49"/>
+      <c r="AB47" s="49"/>
+      <c r="AC47" s="49"/>
+      <c r="AD47" s="49"/>
+      <c r="AE47" s="50"/>
+    </row>
+    <row r="48" spans="3:31" x14ac:dyDescent="0.45">
+      <c r="C48">
         <v>13</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D48" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="11" t="s">
+      <c r="E48" s="21"/>
+      <c r="F48" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="14" t="s">
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="15"/>
-      <c r="Y47" s="15"/>
-      <c r="Z47" s="15"/>
-      <c r="AA47" s="15"/>
-      <c r="AB47" s="15"/>
-      <c r="AC47" s="15"/>
-      <c r="AD47" s="15"/>
-      <c r="AE47" s="16"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="28"/>
+      <c r="AA48" s="28"/>
+      <c r="AB48" s="28"/>
+      <c r="AC48" s="28"/>
+      <c r="AD48" s="28"/>
+      <c r="AE48" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="134">
-    <mergeCell ref="M11:O12"/>
-    <mergeCell ref="F11:L12"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="P11:AE11"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D24:E24"/>
+  <mergeCells count="139">
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F47:L47"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:AE17"/>
     <mergeCell ref="M47:AE47"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:AE27"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:AE28"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:AE29"/>
+    <mergeCell ref="F43:L43"/>
+    <mergeCell ref="M44:AE44"/>
+    <mergeCell ref="F46:L47"/>
+    <mergeCell ref="D46:E47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="M43:AE43"/>
+    <mergeCell ref="F39:L39"/>
+    <mergeCell ref="F40:L40"/>
+    <mergeCell ref="M42:AE42"/>
+    <mergeCell ref="F42:L42"/>
+    <mergeCell ref="F41:L41"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M40:AE40"/>
+    <mergeCell ref="M41:AE41"/>
+    <mergeCell ref="M35:AE35"/>
+    <mergeCell ref="M36:AE36"/>
+    <mergeCell ref="M37:AE37"/>
+    <mergeCell ref="M38:AE38"/>
+    <mergeCell ref="M39:AE39"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:AE23"/>
     <mergeCell ref="P24:R24"/>
     <mergeCell ref="S24:AE24"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:AE25"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:AE26"/>
-    <mergeCell ref="M45:AE45"/>
-    <mergeCell ref="M44:AE44"/>
-    <mergeCell ref="F44:L44"/>
-    <mergeCell ref="F43:L43"/>
-    <mergeCell ref="F33:L33"/>
-    <mergeCell ref="M33:AE33"/>
-    <mergeCell ref="F34:L34"/>
-    <mergeCell ref="F35:L35"/>
-    <mergeCell ref="F36:L36"/>
-    <mergeCell ref="F37:L37"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="F22:L22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="F28:L28"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="F30:L30"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="S19:AE19"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:AE20"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:AE21"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:AE22"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:AE18"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="F23:L23"/>
+    <mergeCell ref="F24:L24"/>
+    <mergeCell ref="F25:L25"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="F19:L19"/>
     <mergeCell ref="S12:AE12"/>
     <mergeCell ref="P12:R12"/>
     <mergeCell ref="S15:AE16"/>
@@ -4567,73 +4655,64 @@
     <mergeCell ref="S14:AE14"/>
     <mergeCell ref="P15:R15"/>
     <mergeCell ref="P16:R16"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="F27:L27"/>
-    <mergeCell ref="F28:L28"/>
-    <mergeCell ref="F29:L29"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="S18:AE18"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:AE19"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:AE20"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:AE21"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:AE17"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="F22:L22"/>
-    <mergeCell ref="F23:L23"/>
-    <mergeCell ref="F24:L24"/>
-    <mergeCell ref="F25:L25"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="F21:L21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M39:AE39"/>
-    <mergeCell ref="M40:AE40"/>
+    <mergeCell ref="F48:L48"/>
+    <mergeCell ref="M48:AE48"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:AE28"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:AE29"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S30:AE30"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:AE25"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:AE26"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:AE27"/>
+    <mergeCell ref="M46:AE46"/>
+    <mergeCell ref="M45:AE45"/>
+    <mergeCell ref="F45:L45"/>
+    <mergeCell ref="F44:L44"/>
+    <mergeCell ref="F34:L34"/>
     <mergeCell ref="M34:AE34"/>
-    <mergeCell ref="M35:AE35"/>
-    <mergeCell ref="M36:AE36"/>
-    <mergeCell ref="M37:AE37"/>
-    <mergeCell ref="M38:AE38"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:AE22"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:AE23"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M46:AE46"/>
-    <mergeCell ref="F42:L42"/>
-    <mergeCell ref="M43:AE43"/>
-    <mergeCell ref="F45:L46"/>
-    <mergeCell ref="D45:E46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="M42:AE42"/>
+    <mergeCell ref="F35:L35"/>
+    <mergeCell ref="F36:L36"/>
+    <mergeCell ref="F37:L37"/>
     <mergeCell ref="F38:L38"/>
-    <mergeCell ref="F39:L39"/>
-    <mergeCell ref="M41:AE41"/>
-    <mergeCell ref="F41:L41"/>
-    <mergeCell ref="F40:L40"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="M11:O12"/>
+    <mergeCell ref="F11:L12"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="P11:AE11"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4656,7 +4735,7 @@
   <sheetData>
     <row r="2" spans="2:52" ht="19.8" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2"/>
       <c r="AC2"/>
@@ -4683,11 +4762,11 @@
     </row>
     <row r="7" spans="2:52" x14ac:dyDescent="0.45">
       <c r="E7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G7" s="5"/>
       <c r="AA7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:52" x14ac:dyDescent="0.45">
@@ -4695,13 +4774,13 @@
         <v>52</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s">
         <v>52</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:52" x14ac:dyDescent="0.45">
@@ -4709,13 +4788,13 @@
         <v>52</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB9" t="s">
         <v>52</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:52" x14ac:dyDescent="0.45">
@@ -4723,13 +4802,13 @@
         <v>52</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="s">
         <v>52</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AP10" s="5"/>
     </row>
@@ -4738,10 +4817,10 @@
         <v>52</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:52" x14ac:dyDescent="0.45">
@@ -4749,7 +4828,7 @@
         <v>52</v>
       </c>
       <c r="AC12" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="2:52" x14ac:dyDescent="0.45">
@@ -4757,7 +4836,7 @@
         <v>52</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ13" s="5"/>
     </row>
@@ -4766,13 +4845,13 @@
         <v>52</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AZ14" s="5"/>
     </row>
     <row r="15" spans="2:52" x14ac:dyDescent="0.45">
       <c r="AB15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AZ15" s="5"/>
     </row>
@@ -4781,7 +4860,7 @@
         <v>52</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AZ16" s="5"/>
     </row>
@@ -4790,7 +4869,7 @@
         <v>52</v>
       </c>
       <c r="AC17" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AZ17" s="5"/>
     </row>
@@ -4799,7 +4878,7 @@
         <v>52</v>
       </c>
       <c r="AC18" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AZ18" s="5"/>
     </row>
@@ -4807,7 +4886,7 @@
       <c r="D19"/>
       <c r="F19" s="5"/>
       <c r="AB19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AZ19" s="5"/>
     </row>
@@ -4818,7 +4897,7 @@
         <v>52</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AZ20" s="5"/>
     </row>
@@ -4829,7 +4908,7 @@
         <v>52</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AZ21" s="5"/>
     </row>
@@ -4840,7 +4919,7 @@
         <v>52</v>
       </c>
       <c r="AC22" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AZ22" s="5"/>
     </row>
